--- a/pred_ohlcv/54_21/2020-01-16 PAY ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2020-01-16 PAY ohlcv.xlsx
@@ -1016,7 +1016,7 @@
         <v>92158.82565231787</v>
       </c>
       <c r="H24">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="25" spans="1:8">
@@ -1224,7 +1224,7 @@
         <v>84674.44195231787</v>
       </c>
       <c r="H32">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33" spans="1:8">
@@ -1250,7 +1250,7 @@
         <v>82770.36385231787</v>
       </c>
       <c r="H33">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="34" spans="1:8">
@@ -1276,7 +1276,7 @@
         <v>66084.36385231787</v>
       </c>
       <c r="H34">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35" spans="1:8">
@@ -1302,7 +1302,7 @@
         <v>66084.36385231787</v>
       </c>
       <c r="H35">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36" spans="1:8">
@@ -1380,7 +1380,7 @@
         <v>76780.11085231787</v>
       </c>
       <c r="H38">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39" spans="1:8">
@@ -1406,7 +1406,7 @@
         <v>76780.11085231787</v>
       </c>
       <c r="H39">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="40" spans="1:8">
@@ -1432,7 +1432,7 @@
         <v>76780.11085231787</v>
       </c>
       <c r="H40">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41" spans="1:8">
@@ -1458,7 +1458,7 @@
         <v>76780.11085231787</v>
       </c>
       <c r="H41">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42" spans="1:8">
@@ -1926,7 +1926,7 @@
         <v>130172.8968523179</v>
       </c>
       <c r="H59">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="60" spans="1:8">
@@ -1952,7 +1952,7 @@
         <v>130172.8968523179</v>
       </c>
       <c r="H60">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="61" spans="1:8">
@@ -1978,7 +1978,7 @@
         <v>130172.8968523179</v>
       </c>
       <c r="H61">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="62" spans="1:8">
@@ -2004,7 +2004,7 @@
         <v>130172.8968523179</v>
       </c>
       <c r="H62">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="63" spans="1:8">
@@ -2030,7 +2030,7 @@
         <v>130172.8968523179</v>
       </c>
       <c r="H63">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="64" spans="1:8">
@@ -2056,7 +2056,7 @@
         <v>130172.8968523179</v>
       </c>
       <c r="H64">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="65" spans="1:8">
@@ -2082,7 +2082,7 @@
         <v>130172.8968523179</v>
       </c>
       <c r="H65">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="66" spans="1:8">
@@ -2368,7 +2368,7 @@
         <v>171677.6160092828</v>
       </c>
       <c r="H76">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="77" spans="1:8">
@@ -2420,7 +2420,7 @@
         <v>166224.6160092828</v>
       </c>
       <c r="H78">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="79" spans="1:8">
@@ -2446,7 +2446,7 @@
         <v>155110.9260092828</v>
       </c>
       <c r="H79">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="80" spans="1:8">
@@ -2472,7 +2472,7 @@
         <v>170276.1879092828</v>
       </c>
       <c r="H80">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="81" spans="1:8">
@@ -2498,7 +2498,7 @@
         <v>120363.5475092828</v>
       </c>
       <c r="H81">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="82" spans="1:8">
@@ -2524,7 +2524,7 @@
         <v>120363.5475092828</v>
       </c>
       <c r="H82">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="83" spans="1:8">
@@ -2550,7 +2550,7 @@
         <v>120363.5475092828</v>
       </c>
       <c r="H83">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="84" spans="1:8">
@@ -2576,7 +2576,7 @@
         <v>120363.5475092828</v>
       </c>
       <c r="H84">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="85" spans="1:8">
@@ -2602,7 +2602,7 @@
         <v>120363.5475092828</v>
       </c>
       <c r="H85">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="86" spans="1:8">
@@ -2628,7 +2628,7 @@
         <v>116001.5561476097</v>
       </c>
       <c r="H86">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="87" spans="1:8">
@@ -2654,7 +2654,7 @@
         <v>116001.5561476097</v>
       </c>
       <c r="H87">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="88" spans="1:8">
@@ -2680,7 +2680,7 @@
         <v>112486.5776476097</v>
       </c>
       <c r="H88">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="89" spans="1:8">
@@ -2706,7 +2706,7 @@
         <v>113013.7530476097</v>
       </c>
       <c r="H89">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="90" spans="1:8">
@@ -2732,7 +2732,7 @@
         <v>122387.4030476097</v>
       </c>
       <c r="H90">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="91" spans="1:8">
@@ -2758,7 +2758,7 @@
         <v>117716.5140476097</v>
       </c>
       <c r="H91">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="92" spans="1:8">
@@ -2784,7 +2784,7 @@
         <v>110883.0121476097</v>
       </c>
       <c r="H92">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="93" spans="1:8">
@@ -2836,7 +2836,7 @@
         <v>90389.06554760966</v>
       </c>
       <c r="H94">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="95" spans="1:8">
@@ -2862,7 +2862,7 @@
         <v>92506.90554760965</v>
       </c>
       <c r="H95">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="96" spans="1:8">
@@ -2888,7 +2888,7 @@
         <v>29257.38974760965</v>
       </c>
       <c r="H96">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="97" spans="1:8">

--- a/pred_ohlcv/54_21/2020-01-16 PAY ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2020-01-16 PAY ohlcv.xlsx
@@ -1016,7 +1016,7 @@
         <v>92158.82565231787</v>
       </c>
       <c r="H24">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25" spans="1:8">
@@ -1328,7 +1328,7 @@
         <v>81369.36385231787</v>
       </c>
       <c r="H36">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="37" spans="1:8">
@@ -1354,7 +1354,7 @@
         <v>76670.11085231787</v>
       </c>
       <c r="H37">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38" spans="1:8">
@@ -1926,7 +1926,7 @@
         <v>130172.8968523179</v>
       </c>
       <c r="H59">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="60" spans="1:8">
@@ -1952,7 +1952,7 @@
         <v>130172.8968523179</v>
       </c>
       <c r="H60">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="61" spans="1:8">
@@ -1978,7 +1978,7 @@
         <v>130172.8968523179</v>
       </c>
       <c r="H61">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="62" spans="1:8">
@@ -2004,7 +2004,7 @@
         <v>130172.8968523179</v>
       </c>
       <c r="H62">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="63" spans="1:8">
@@ -2030,7 +2030,7 @@
         <v>130172.8968523179</v>
       </c>
       <c r="H63">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="64" spans="1:8">
@@ -2056,7 +2056,7 @@
         <v>130172.8968523179</v>
       </c>
       <c r="H64">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="65" spans="1:8">
@@ -2082,7 +2082,7 @@
         <v>130172.8968523179</v>
       </c>
       <c r="H65">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="66" spans="1:8">
@@ -2212,7 +2212,7 @@
         <v>184496.3580523179</v>
       </c>
       <c r="H70">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="71" spans="1:8">
@@ -2238,7 +2238,7 @@
         <v>179187.0742092828</v>
       </c>
       <c r="H71">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="72" spans="1:8">
@@ -2264,7 +2264,7 @@
         <v>179187.0742092828</v>
       </c>
       <c r="H72">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="73" spans="1:8">
@@ -2290,7 +2290,7 @@
         <v>180244.2882092828</v>
       </c>
       <c r="H73">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="74" spans="1:8">
@@ -2316,7 +2316,7 @@
         <v>170877.6160092828</v>
       </c>
       <c r="H74">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="75" spans="1:8">
@@ -2368,7 +2368,7 @@
         <v>171677.6160092828</v>
       </c>
       <c r="H76">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="77" spans="1:8">
@@ -2394,7 +2394,7 @@
         <v>172477.6160092828</v>
       </c>
       <c r="H77">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="78" spans="1:8">
@@ -2420,7 +2420,7 @@
         <v>166224.6160092828</v>
       </c>
       <c r="H78">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="79" spans="1:8">
@@ -2446,7 +2446,7 @@
         <v>155110.9260092828</v>
       </c>
       <c r="H79">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="80" spans="1:8">
@@ -2472,7 +2472,7 @@
         <v>170276.1879092828</v>
       </c>
       <c r="H80">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="81" spans="1:8">
@@ -2498,7 +2498,7 @@
         <v>120363.5475092828</v>
       </c>
       <c r="H81">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="82" spans="1:8">
@@ -2524,7 +2524,7 @@
         <v>120363.5475092828</v>
       </c>
       <c r="H82">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="83" spans="1:8">
@@ -2680,7 +2680,7 @@
         <v>112486.5776476097</v>
       </c>
       <c r="H88">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="89" spans="1:8">
@@ -2732,7 +2732,7 @@
         <v>122387.4030476097</v>
       </c>
       <c r="H90">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="91" spans="1:8">
@@ -2758,7 +2758,7 @@
         <v>117716.5140476097</v>
       </c>
       <c r="H91">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="92" spans="1:8">
@@ -2784,7 +2784,7 @@
         <v>110883.0121476097</v>
       </c>
       <c r="H92">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="93" spans="1:8">
@@ -4292,7 +4292,7 @@
         <v>-30228.99339025662</v>
       </c>
       <c r="H150">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="151" spans="1:8">
@@ -4318,7 +4318,7 @@
         <v>-30228.99339025662</v>
       </c>
       <c r="H151">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="152" spans="1:8">
@@ -4370,7 +4370,7 @@
         <v>-32628.99339025662</v>
       </c>
       <c r="H153">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="154" spans="1:8">
@@ -4396,7 +4396,7 @@
         <v>-27894.80239025662</v>
       </c>
       <c r="H154">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="155" spans="1:8">
@@ -4422,7 +4422,7 @@
         <v>-28423.80239025662</v>
       </c>
       <c r="H155">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="156" spans="1:8">
@@ -4474,7 +4474,7 @@
         <v>-26444.80239025662</v>
       </c>
       <c r="H157">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="158" spans="1:8">
@@ -4500,7 +4500,7 @@
         <v>-21244.80239025662</v>
       </c>
       <c r="H158">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="159" spans="1:8">
@@ -4526,7 +4526,7 @@
         <v>-20099.12206006881</v>
       </c>
       <c r="H159">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="160" spans="1:8">
@@ -4552,7 +4552,7 @@
         <v>-20099.12206006881</v>
       </c>
       <c r="H160">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="161" spans="1:8">
@@ -4578,7 +4578,7 @@
         <v>-14759.20206006881</v>
       </c>
       <c r="H161">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="162" spans="1:8">
@@ -4604,7 +4604,7 @@
         <v>-15171.59226006881</v>
       </c>
       <c r="H162">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="163" spans="1:8">
@@ -4630,7 +4630,7 @@
         <v>-14759.59226006881</v>
       </c>
       <c r="H163">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="164" spans="1:8">
@@ -4656,7 +4656,7 @@
         <v>-10565.59226006881</v>
       </c>
       <c r="H164">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="165" spans="1:8">
@@ -4682,7 +4682,7 @@
         <v>-14512.97906006881</v>
       </c>
       <c r="H165">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="166" spans="1:8">
@@ -4708,7 +4708,7 @@
         <v>-7132.979060068807</v>
       </c>
       <c r="H166">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="167" spans="1:8">
@@ -4734,7 +4734,7 @@
         <v>-7132.979060068807</v>
       </c>
       <c r="H167">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="168" spans="1:8">
@@ -4838,7 +4838,7 @@
         <v>-8300.379060068806</v>
       </c>
       <c r="H171">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="172" spans="1:8">
@@ -4890,7 +4890,7 @@
         <v>-7367.020060068806</v>
       </c>
       <c r="H173">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="174" spans="1:8">
@@ -4916,7 +4916,7 @@
         <v>-7367.020060068806</v>
       </c>
       <c r="H174">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="175" spans="1:8">
@@ -4942,7 +4942,7 @@
         <v>-7367.020060068806</v>
       </c>
       <c r="H175">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="176" spans="1:8">
@@ -4968,7 +4968,7 @@
         <v>-7367.020060068806</v>
       </c>
       <c r="H176">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="177" spans="1:8">
@@ -4994,7 +4994,7 @@
         <v>-7379.843660068806</v>
       </c>
       <c r="H177">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="178" spans="1:8">
@@ -5020,7 +5020,7 @@
         <v>-7379.843660068806</v>
       </c>
       <c r="H178">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="179" spans="1:8">
@@ -5046,7 +5046,7 @@
         <v>-6321.843660068806</v>
       </c>
       <c r="H179">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="180" spans="1:8">
@@ -5072,7 +5072,7 @@
         <v>-5521.843660068806</v>
       </c>
       <c r="H180">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="181" spans="1:8">
@@ -5098,7 +5098,7 @@
         <v>-5521.843660068806</v>
       </c>
       <c r="H181">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="182" spans="1:8">
@@ -5124,7 +5124,7 @@
         <v>-5121.843660068806</v>
       </c>
       <c r="H182">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="183" spans="1:8">
@@ -5150,7 +5150,7 @@
         <v>-5121.843660068806</v>
       </c>
       <c r="H183">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="184" spans="1:8">
@@ -5176,7 +5176,7 @@
         <v>-17925.2447600688</v>
       </c>
       <c r="H184">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="185" spans="1:8">
@@ -5202,7 +5202,7 @@
         <v>-17925.2447600688</v>
       </c>
       <c r="H185">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="186" spans="1:8">
@@ -5228,7 +5228,7 @@
         <v>-17925.2447600688</v>
       </c>
       <c r="H186">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="187" spans="1:8">
@@ -5254,7 +5254,7 @@
         <v>-17925.2447600688</v>
       </c>
       <c r="H187">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="188" spans="1:8">
@@ -5280,7 +5280,7 @@
         <v>-17925.2447600688</v>
       </c>
       <c r="H188">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="189" spans="1:8">
@@ -5306,7 +5306,7 @@
         <v>-17925.2447600688</v>
       </c>
       <c r="H189">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="190" spans="1:8">
@@ -5332,7 +5332,7 @@
         <v>-17925.2447600688</v>
       </c>
       <c r="H190">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="191" spans="1:8">
@@ -5358,7 +5358,7 @@
         <v>-17925.2447600688</v>
       </c>
       <c r="H191">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="192" spans="1:8">
@@ -5384,7 +5384,7 @@
         <v>-17925.2447600688</v>
       </c>
       <c r="H192">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
   </sheetData>
